--- a/Input/Moth count data_2023_2024.xlsx
+++ b/Input/Moth count data_2023_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Noa/Documents/Documents - MacBook Air/PhD/R:Stats:GIS/RStudio/R_Workspace/Pheromone_trap_code/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D8941-9B4F-8045-93A5-72027FAB3EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E60D85-E371-5F4D-9666-6FE4B4A5957D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2806,7 +2806,7 @@
   </sheetPr>
   <dimension ref="A1:AE317"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A300" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2814,9 +2814,11 @@
   <cols>
     <col min="1" max="1" width="10.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="8" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
